--- a/Pruebas Mantenimiento Masivo Saldos.xlsx
+++ b/Pruebas Mantenimiento Masivo Saldos.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jhernandez\Documents\GitHub\desktop-tutorial\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jhernandez\Documents\GitHub\hello-world\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="348">
   <si>
     <t>Escenario</t>
   </si>
@@ -1550,6 +1550,9 @@
     <t>16:21:29 OP
 16:26:53 AUT 
 16:22:02 Procesamiento 16:39:07</t>
+  </si>
+  <si>
+    <t>B113PRICE AND COMPANY LIMITED</t>
   </si>
 </sst>
 </file>
@@ -1921,7 +1924,7 @@
         <xdr:cNvPr id="2" name="Imagen 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AEF3DFD5-1201-4B19-9104-BC063D381BCC}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEF3DFD5-1201-4B19-9104-BC063D381BCC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2216,7 +2219,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B114" sqref="B114"/>
+      <selection pane="bottomLeft" activeCell="B123" sqref="B123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5242,9 +5245,8 @@
       <c r="A114" s="56">
         <v>100000128</v>
       </c>
-      <c r="B114" s="56" t="e">
-        <f>-B113PRICE AND COMPANY LIMITED</f>
-        <v>#NAME?</v>
+      <c r="B114" s="56" t="s">
+        <v>347</v>
       </c>
       <c r="C114" s="56">
         <v>21</v>

--- a/Pruebas Mantenimiento Masivo Saldos.xlsx
+++ b/Pruebas Mantenimiento Masivo Saldos.xlsx
@@ -1552,7 +1552,7 @@
 16:22:02 Procesamiento 16:39:07</t>
   </si>
   <si>
-    <t>B113PRICE AND COMPANY LIMITED</t>
+    <t>B113PRICE AND COMPANY 4665</t>
   </si>
 </sst>
 </file>
@@ -1924,7 +1924,7 @@
         <xdr:cNvPr id="2" name="Imagen 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEF3DFD5-1201-4B19-9104-BC063D381BCC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AEF3DFD5-1201-4B19-9104-BC063D381BCC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2219,7 +2219,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B123" sqref="B123"/>
+      <selection pane="bottomLeft" activeCell="B120" sqref="B120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Pruebas Mantenimiento Masivo Saldos.xlsx
+++ b/Pruebas Mantenimiento Masivo Saldos.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="347">
   <si>
     <t>Escenario</t>
   </si>
@@ -1550,9 +1550,6 @@
     <t>16:21:29 OP
 16:26:53 AUT 
 16:22:02 Procesamiento 16:39:07</t>
-  </si>
-  <si>
-    <t>B113PRICE AND COMPANY 4665</t>
   </si>
 </sst>
 </file>
@@ -1924,7 +1921,7 @@
         <xdr:cNvPr id="2" name="Imagen 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AEF3DFD5-1201-4B19-9104-BC063D381BCC}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEF3DFD5-1201-4B19-9104-BC063D381BCC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2219,7 +2216,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B120" sqref="B120"/>
+      <selection pane="bottomLeft" activeCell="B115" sqref="B115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5245,9 +5242,7 @@
       <c r="A114" s="56">
         <v>100000128</v>
       </c>
-      <c r="B114" s="56" t="s">
-        <v>347</v>
-      </c>
+      <c r="B114" s="56"/>
       <c r="C114" s="56">
         <v>21</v>
       </c>
